--- a/Datasets/Prior data 1.xlsx
+++ b/Datasets/Prior data 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Breastfeeding_Duration_Analyasis\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Breastfeeding_Duration_Analysis\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5A031-F11C-4C4D-8EBD-2ACA4D011F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564962B-89F9-42A9-94E3-369CC422D31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="12300" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="3015" windowWidth="12300" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Variable name</t>
   </si>
@@ -97,57 +97,18 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Parity</t>
-  </si>
-  <si>
-    <t>0.72, 1.44</t>
-  </si>
-  <si>
     <t>95% CI R</t>
   </si>
   <si>
-    <t>95% CI F</t>
-  </si>
-  <si>
-    <t>0.93, 1.04</t>
-  </si>
-  <si>
-    <t>0.93, 1.06</t>
-  </si>
-  <si>
-    <t>1.12, 1.23</t>
-  </si>
-  <si>
-    <t>0.97, 1.26</t>
-  </si>
-  <si>
-    <t>0.96, 1.08</t>
-  </si>
-  <si>
     <t>0.92, 1.00</t>
   </si>
   <si>
-    <t>0.83, 0.98</t>
-  </si>
-  <si>
     <t>0.80, 1.12</t>
   </si>
   <si>
-    <t>1.59, 1.84</t>
-  </si>
-  <si>
     <t>1.03, 1.87</t>
   </si>
   <si>
-    <t>HR.Fixed</t>
-  </si>
-  <si>
-    <t>LCI.Fixed</t>
-  </si>
-  <si>
-    <t>UCI.Fixed</t>
-  </si>
-  <si>
     <t>HR.Random</t>
   </si>
   <si>
@@ -173,16 +134,13 @@
   </si>
   <si>
     <t>Third or above</t>
-  </si>
-  <si>
-    <t>3-4 children</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +152,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,15 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,25 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,31 +544,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -631,95 +564,59 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="F2" s="2">
-        <v>1.84</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="J2" s="2">
         <v>1.87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="F3" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="J3" s="2">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>0.99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F4" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="J4" s="2">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -727,68 +624,44 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>1.17</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="F5" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="J5" s="2">
         <v>1.27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="F6" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="J6" s="2">
         <v>1.37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>1.03</v>
@@ -802,20 +675,8 @@
       <c r="F7" s="2">
         <v>1.18</v>
       </c>
-      <c r="G7" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -834,20 +695,8 @@
       <c r="F8" s="2">
         <v>0.89</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -858,7 +707,7 @@
         <v>0.96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>0.92</v>
@@ -866,27 +715,15 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
         <v>1.76</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -898,25 +735,13 @@
       <c r="F10" s="2">
         <v>3.14</v>
       </c>
-      <c r="G10" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>1.47</v>
@@ -930,20 +755,8 @@
       <c r="F11" s="2">
         <v>2.5</v>
       </c>
-      <c r="G11" s="2">
-        <v>1.47</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -951,31 +764,19 @@
         <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F12" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J12" s="2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -994,60 +795,12 @@
       <c r="F13" s="2">
         <v>3.31</v>
       </c>
-      <c r="G13" s="2">
-        <v>1.89</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
